--- a/HDD-2023.xlsx
+++ b/HDD-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\HDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\HDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703EC92-6EA5-48AB-BF29-553B2542DE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF59BA2-4A8D-43CF-A917-81E2739BE169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="660" windowWidth="28935" windowHeight="17160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="2115" windowWidth="28935" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seagate" sheetId="1" r:id="rId1"/>
@@ -2870,9 +2870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8:J16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26074,7 +26074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5770AD4-6AF4-4533-9615-21941EA2B09F}">
   <dimension ref="A1:P464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
